--- a/docs/画面項目定義書/virtual_machine_management/backup_management.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/backup_management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1024A416-5D16-4A23-BA45-E6461691E7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226543B-4BA5-4911-AC07-37E63F062DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -209,35 +209,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>繰り返しで表示、押下時仮想マシン管理ダッシュボードへ遷移</t>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>バックアップ作成モーダルへ遷移</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>確認ポップアップ</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -297,6 +268,26 @@
     </rPh>
     <rPh sb="16" eb="19">
       <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mo_backup_create.htmlへ遷移</t>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返しで表示、押下時virtual_machine_dashboard.htmlへ遷移</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -908,14 +899,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2979720</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1570</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>237240</xdr:rowOff>
     </xdr:to>
@@ -932,8 +923,89 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6391080" y="6808320"/>
-          <a:ext cx="6140880" cy="237240"/>
+          <a:off x="6022810" y="5991225"/>
+          <a:ext cx="5535760" cy="237240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="23040" rIns="27360" bIns="0" anchor="t" upright="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Verdana"/>
+            </a:rPr>
+            <a:t>All Rights Reserved,Copyright © 2025 KATAYANAGI INSTITUTE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" u="none" strike="noStrike">
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Noto Serif CJK JP"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1570</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>237240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536799CF-9AD8-4870-B8D8-70743715F847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6022810" y="5991225"/>
+          <a:ext cx="5535760" cy="237240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1168,21 +1240,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="5" max="5" width="29.86328125" customWidth="1"/>
+    <col min="6" max="6" width="40.86328125" customWidth="1"/>
     <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1265,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1202,7 +1274,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14.5">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1211,7 +1283,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1220,7 +1292,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13.25">
       <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1305,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13.25">
       <c r="A6" s="39" t="s">
         <v>27</v>
       </c>
@@ -1246,7 +1318,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13.25">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1255,7 +1327,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13.25">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1293,7 +1365,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5">
+    <row r="10" spans="1:7" ht="13.25">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1310,7 +1382,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5">
+    <row r="11" spans="1:7" ht="13.25">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1326,10 +1398,10 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.25">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1340,14 +1412,14 @@
         <v>12</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
-      <c r="A13" s="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.25">
+      <c r="A13" s="21">
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -1357,14 +1429,14 @@
         <v>12</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
-      <c r="A14" s="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.25">
+      <c r="A14" s="28">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -1375,15 +1447,15 @@
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5">
-      <c r="A15" s="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.25">
+      <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -1401,9 +1473,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24">
-      <c r="A16" s="31">
-        <v>11</v>
+    <row r="16" spans="1:7" ht="24.5">
+      <c r="A16" s="28">
+        <v>8</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>19</v>
@@ -1417,12 +1489,12 @@
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
-      <c r="A17" s="31">
-        <v>12</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.25">
+      <c r="A17" s="21">
+        <v>9</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>21</v>
@@ -1439,12 +1511,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.5">
-      <c r="A18" s="31">
-        <v>13</v>
+    <row r="18" spans="1:7" ht="13.25">
+      <c r="A18" s="28">
+        <v>10</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>12</v>
@@ -1456,174 +1528,61 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13.5">
-      <c r="A19" s="31">
-        <v>14</v>
+    <row r="19" spans="1:7" ht="13.25">
+      <c r="A19" s="21">
+        <v>11</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5">
-      <c r="A20" s="31">
-        <v>15</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.25">
+      <c r="A20" s="28">
+        <v>12</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5">
-      <c r="A21" s="31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5">
-      <c r="A22" s="28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.5">
-      <c r="A23" s="21">
-        <v>15</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="13.5">
-      <c r="A24" s="28">
-        <v>16</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.5">
-      <c r="A25" s="21">
-        <v>17</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="E25" s="25"/>
-      <c r="G25" s="34"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.5">
-      <c r="A26" s="21">
-        <v>18</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="E26" s="25"/>
-      <c r="G26" s="34"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.5">
-      <c r="A27" s="21">
-        <v>19</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.5">
-      <c r="A28" s="21">
-        <v>20</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.5">
-      <c r="A29" s="21">
-        <v>21</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A30" s="21">
-        <v>22</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A31" s="21">
-        <v>23</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A32" s="21">
-        <v>24</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A33" s="21">
-        <v>25</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-    </row>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.25"/>
+    <row r="23" spans="1:7" ht="13.25"/>
+    <row r="24" spans="1:7" ht="13.25"/>
+    <row r="25" spans="1:7" ht="13.25"/>
+    <row r="26" spans="1:7" ht="13.25"/>
+    <row r="27" spans="1:7" ht="13.25"/>
+    <row r="28" spans="1:7" ht="13.25"/>
+    <row r="29" spans="1:7" ht="13.25"/>
     <row r="35" spans="1:7" ht="18.75" customHeight="1">
       <c r="A35" s="37"/>
       <c r="C35" s="37"/>
